--- a/data/trans_dic/P43E_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P43E_R-Clase-trans_dic.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5480541170674167</v>
+        <v>0.5455691345943894</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6373980798675248</v>
+        <v>0.6317731046303027</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4699112973469414</v>
+        <v>0.4718699995863543</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6794218951185599</v>
+        <v>0.6761039660937251</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7519322232045046</v>
+        <v>0.7495826661937387</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5756828720973055</v>
+        <v>0.5812487570821864</v>
       </c>
     </row>
     <row r="7">
@@ -645,7 +645,7 @@
         <v>0.7064021784214801</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.6055811538507728</v>
+        <v>0.6055811538507729</v>
       </c>
     </row>
     <row r="8">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5609238599406551</v>
+        <v>0.5645921481022359</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6466686508220205</v>
+        <v>0.6506151838623112</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5490399963410205</v>
+        <v>0.547564940158118</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6899059316541377</v>
+        <v>0.6939872216207476</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7563831098329433</v>
+        <v>0.7580489167283548</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6630026978353836</v>
+        <v>0.6596826723133695</v>
       </c>
     </row>
     <row r="10">
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6514457634929439</v>
+        <v>0.6394621645941362</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7865499340409615</v>
+        <v>0.7888421281193698</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6150046142540263</v>
+        <v>0.6087339359207826</v>
       </c>
     </row>
     <row r="12">
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7841640556626527</v>
+        <v>0.7901389903811504</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.915084539341731</v>
+        <v>0.9144466240806796</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7842445413474657</v>
+        <v>0.7764073963040092</v>
       </c>
     </row>
     <row r="13">
@@ -755,7 +755,7 @@
         <v>0.8469794201748231</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.8220911115354718</v>
+        <v>0.8220911115354717</v>
       </c>
     </row>
     <row r="14">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7590550612711612</v>
+        <v>0.7614491786478709</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8099999349689315</v>
+        <v>0.8129807916858266</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7883431728352055</v>
+        <v>0.7835064955189641</v>
       </c>
     </row>
     <row r="15">
@@ -783,13 +783,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8303372487116317</v>
+        <v>0.8298660488917088</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8751198072169936</v>
+        <v>0.8766604443907803</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.854127250192438</v>
+        <v>0.8554480820507353</v>
       </c>
     </row>
     <row r="16">
@@ -810,7 +810,7 @@
         <v>0.9420642351520655</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9044674832472268</v>
+        <v>0.9044674832472266</v>
       </c>
     </row>
     <row r="17">
@@ -821,13 +821,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8146482453889996</v>
+        <v>0.8089854311697381</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9159213891263911</v>
+        <v>0.9155643505207803</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.873620302321263</v>
+        <v>0.875859981115957</v>
       </c>
     </row>
     <row r="18">
@@ -838,13 +838,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8824311633080661</v>
+        <v>0.8811749389911004</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9638848548914309</v>
+        <v>0.9619949625882683</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9294399468719392</v>
+        <v>0.9292938883147569</v>
       </c>
     </row>
     <row r="19">
@@ -865,7 +865,7 @@
         <v>0.877428492031251</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.8660839100821461</v>
+        <v>0.866083910082146</v>
       </c>
     </row>
     <row r="20">
@@ -876,13 +876,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.7965802357473476</v>
+        <v>0.7983834958462969</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.8461993050559421</v>
+        <v>0.8426508604803786</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.8266943691762095</v>
+        <v>0.8306049825095964</v>
       </c>
     </row>
     <row r="21">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.8644489766260516</v>
+        <v>0.8651381738936991</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9047069008146964</v>
+        <v>0.9041915280571168</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8991457862802194</v>
+        <v>0.8979244017266127</v>
       </c>
     </row>
     <row r="22">
@@ -931,13 +931,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.7508254951612058</v>
+        <v>0.7514186675191777</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8196950974941358</v>
+        <v>0.8187477721028618</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.7426725894145195</v>
+        <v>0.7431795041847609</v>
       </c>
     </row>
     <row r="24">
@@ -948,13 +948,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7902258290786066</v>
+        <v>0.7889787545507699</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8522807856677214</v>
+        <v>0.8509888663102692</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7791748173224832</v>
+        <v>0.7796032174860879</v>
       </c>
     </row>
     <row r="25">
@@ -1091,13 +1091,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>139205</v>
+        <v>138574</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>168981</v>
+        <v>167489</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>117428</v>
+        <v>117917</v>
       </c>
     </row>
     <row r="7">
@@ -1108,13 +1108,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>172572</v>
+        <v>171730</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>199345</v>
+        <v>198722</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>143860</v>
+        <v>145251</v>
       </c>
     </row>
     <row r="8">
@@ -1163,13 +1163,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>149084</v>
+        <v>150059</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>189773</v>
+        <v>190931</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>126340</v>
+        <v>126001</v>
       </c>
     </row>
     <row r="11">
@@ -1180,13 +1180,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>183365</v>
+        <v>184450</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>221970</v>
+        <v>222459</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>152564</v>
+        <v>151800</v>
       </c>
     </row>
     <row r="12">
@@ -1235,13 +1235,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>112443</v>
+        <v>110374</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>89131</v>
+        <v>89391</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>50064</v>
+        <v>49553</v>
       </c>
     </row>
     <row r="15">
@@ -1252,13 +1252,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>135351</v>
+        <v>136382</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>103696</v>
+        <v>103624</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>63841</v>
+        <v>63203</v>
       </c>
     </row>
     <row r="16">
@@ -1307,13 +1307,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>410722</v>
+        <v>412017</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>441772</v>
+        <v>443397</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>313347</v>
+        <v>311425</v>
       </c>
     </row>
     <row r="19">
@@ -1324,13 +1324,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>449292</v>
+        <v>449037</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>477288</v>
+        <v>478128</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>339495</v>
+        <v>340020</v>
       </c>
     </row>
     <row r="20">
@@ -1379,13 +1379,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>386579</v>
+        <v>383892</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>395373</v>
+        <v>395219</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>285041</v>
+        <v>285772</v>
       </c>
     </row>
     <row r="23">
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>418744</v>
+        <v>418148</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>416077</v>
+        <v>415261</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>303254</v>
+        <v>303206</v>
       </c>
     </row>
     <row r="24">
@@ -1451,13 +1451,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>427612</v>
+        <v>428580</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>421738</v>
+        <v>419970</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>235007</v>
+        <v>236119</v>
       </c>
     </row>
     <row r="27">
@@ -1468,13 +1468,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>464045</v>
+        <v>464415</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>450898</v>
+        <v>450641</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>255603</v>
+        <v>255256</v>
       </c>
     </row>
     <row r="28">
@@ -1523,13 +1523,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1685475</v>
+        <v>1686806</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1760169</v>
+        <v>1758135</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1165576</v>
+        <v>1166371</v>
       </c>
     </row>
     <row r="31">
@@ -1540,13 +1540,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>1773922</v>
+        <v>1771122</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>1830142</v>
+        <v>1827368</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1222863</v>
+        <v>1223536</v>
       </c>
     </row>
     <row r="32">
